--- a/data.xlsx
+++ b/data.xlsx
@@ -111,7 +111,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,10 +136,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,10 +153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C365"/>
+  <dimension ref="A1:C359"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D136" activeCellId="0" sqref="D136"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A343" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C361" activeCellId="0" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1825,9 +1821,11 @@
       <c r="A151" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B151" s="6"/>
+      <c r="B151" s="2" t="n">
+        <v>127.818</v>
+      </c>
       <c r="C151" s="3" t="n">
-        <v>0.6383125</v>
+        <v>0.67242708</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,10 +1833,10 @@
         <v>152</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>127.818</v>
+        <v>127.809</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>0.67242708</v>
+        <v>0.706385417</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,7 +1847,7 @@
         <v>127.809</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>0.706385417</v>
+        <v>0.64110417</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,10 +1855,10 @@
         <v>154</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>127.809</v>
+        <v>127.81</v>
       </c>
       <c r="C154" s="3" t="n">
-        <v>0.64110417</v>
+        <v>0.62683333</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,10 +1866,10 @@
         <v>155</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>127.81</v>
+        <v>127.803</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>0.62683333</v>
+        <v>0.61463542</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,10 +1877,10 @@
         <v>156</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>127.803</v>
+        <v>127.805</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>0.61463542</v>
+        <v>0.61020833</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,10 +1888,10 @@
         <v>157</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>127.805</v>
+        <v>127.817</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>0.61020833</v>
+        <v>0.62084375</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,10 +1899,10 @@
         <v>158</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>127.817</v>
+        <v>127.806</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>0.62084375</v>
+        <v>0.62522917</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,10 +1910,10 @@
         <v>159</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>127.806</v>
+        <v>127.8</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>0.62522917</v>
+        <v>0.62889583</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,10 +1921,10 @@
         <v>160</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>127.8</v>
+        <v>127.802</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>0.62889583</v>
+        <v>0.64789583</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,10 +1932,10 @@
         <v>161</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>127.802</v>
+        <v>127.803</v>
       </c>
       <c r="C161" s="3" t="n">
-        <v>0.64789583</v>
+        <v>0.65367708</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,10 +1943,10 @@
         <v>162</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>127.803</v>
+        <v>127.795</v>
       </c>
       <c r="C162" s="3" t="n">
-        <v>0.65367708</v>
+        <v>0.66057292</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,10 +1954,10 @@
         <v>163</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>127.795</v>
+        <v>127.805</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>0.66057292</v>
+        <v>0.68857292</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,10 +1965,10 @@
         <v>164</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>127.805</v>
+        <v>127.807</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>0.68857292</v>
+        <v>0.69748958</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,10 +1976,10 @@
         <v>165</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>127.807</v>
+        <v>127.795</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>0.69748958</v>
+        <v>0.71082292</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,10 +1987,10 @@
         <v>166</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>127.795</v>
+        <v>127.803</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>0.71082292</v>
+        <v>0.74703125</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,10 +1998,10 @@
         <v>167</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>127.803</v>
+        <v>127.809</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>0.74703125</v>
+        <v>0.70941667</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,10 +2009,10 @@
         <v>168</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>127.809</v>
+        <v>127.812</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>0.70941667</v>
+        <v>0.67458333</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,10 +2020,10 @@
         <v>169</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>127.812</v>
+        <v>127.801</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>0.67458333</v>
+        <v>0.75455208</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,10 +2031,10 @@
         <v>170</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>127.801</v>
+        <v>127.805</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>0.75455208</v>
+        <v>0.6844375</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,10 +2042,10 @@
         <v>171</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>127.805</v>
+        <v>127.812</v>
       </c>
       <c r="C171" s="3" t="n">
-        <v>0.6844375</v>
+        <v>0.67104167</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,10 +2053,10 @@
         <v>172</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>127.812</v>
+        <v>127.801</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>0.67104167</v>
+        <v>0.67709375</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,10 +2064,10 @@
         <v>173</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>127.801</v>
+        <v>127.8</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>0.67709375</v>
+        <v>0.68230208</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,10 +2075,10 @@
         <v>174</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>127.8</v>
+        <v>127.802</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>0.68230208</v>
+        <v>0.68883333</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,10 +2086,10 @@
         <v>175</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>127.802</v>
+        <v>127.803</v>
       </c>
       <c r="C175" s="3" t="n">
-        <v>0.68883333</v>
+        <v>0.70925</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,10 +2097,10 @@
         <v>176</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>127.803</v>
+        <v>127.805</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>0.70925</v>
+        <v>0.71833333</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,10 +2108,10 @@
         <v>177</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>127.805</v>
+        <v>127.8</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>0.71833333</v>
+        <v>0.72407292</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,19 +2119,21 @@
         <v>178</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>127.8</v>
+        <v>127.805</v>
       </c>
       <c r="C178" s="3" t="n">
-        <v>0.72407292</v>
+        <v>0.71066667</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B179" s="6"/>
+      <c r="B179" s="2" t="n">
+        <v>127.806</v>
+      </c>
       <c r="C179" s="3" t="n">
-        <v>0.72790625</v>
+        <v>0.694125</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,10 +2141,10 @@
         <v>180</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>127.805</v>
+        <v>127.807</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>0.71066667</v>
+        <v>0.68776042</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,10 +2152,10 @@
         <v>181</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>127.806</v>
+        <v>127.798</v>
       </c>
       <c r="C181" s="3" t="n">
-        <v>0.694125</v>
+        <v>0.7099375</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,10 +2163,10 @@
         <v>182</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>127.807</v>
+        <v>127.806</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>0.68776042</v>
+        <v>0.69896875</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,10 +2174,10 @@
         <v>183</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>127.798</v>
+        <v>127.799</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>0.7099375</v>
+        <v>0.69154167</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,10 +2185,10 @@
         <v>184</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>127.806</v>
+        <v>127.794</v>
       </c>
       <c r="C184" s="3" t="n">
-        <v>0.69896875</v>
+        <v>0.70048958</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,10 +2196,10 @@
         <v>185</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>127.799</v>
+        <v>127.806</v>
       </c>
       <c r="C185" s="3" t="n">
-        <v>0.69154167</v>
+        <v>0.73659375</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,10 +2207,10 @@
         <v>186</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>127.794</v>
+        <v>127.805</v>
       </c>
       <c r="C186" s="3" t="n">
-        <v>0.70048958</v>
+        <v>0.7649375</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,10 +2218,10 @@
         <v>187</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>127.806</v>
+        <v>127.808</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>0.73659375</v>
+        <v>0.77194792</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,10 +2229,10 @@
         <v>188</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>127.805</v>
+        <v>127.809</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>0.7649375</v>
+        <v>0.74427083</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,10 +2240,10 @@
         <v>189</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>127.808</v>
+        <v>127.81</v>
       </c>
       <c r="C189" s="3" t="n">
-        <v>0.77194792</v>
+        <v>0.73734375</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,10 +2251,10 @@
         <v>190</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>127.809</v>
+        <v>127.798</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>0.74427083</v>
+        <v>0.76641667</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,19 +2262,21 @@
         <v>191</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>127.81</v>
+        <v>127.8</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>0.73734375</v>
+        <v>0.76114583</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B192" s="6"/>
+      <c r="B192" s="2" t="n">
+        <v>127.803</v>
+      </c>
       <c r="C192" s="3" t="n">
-        <v>0.75215625</v>
+        <v>0.76807292</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2282,10 +2284,10 @@
         <v>193</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>127.798</v>
+        <v>127.802</v>
       </c>
       <c r="C193" s="3" t="n">
-        <v>0.76641667</v>
+        <v>0.77253125</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,10 +2295,10 @@
         <v>194</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>127.8</v>
+        <v>127.802</v>
       </c>
       <c r="C194" s="3" t="n">
-        <v>0.76114583</v>
+        <v>0.77313542</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,10 +2306,10 @@
         <v>195</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>127.803</v>
+        <v>127.796</v>
       </c>
       <c r="C195" s="3" t="n">
-        <v>0.76807292</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,10 +2317,10 @@
         <v>196</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>127.802</v>
+        <v>127.801</v>
       </c>
       <c r="C196" s="3" t="n">
-        <v>0.77253125</v>
+        <v>0.77244792</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,7 +2331,7 @@
         <v>127.802</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>0.77313542</v>
+        <v>0.77671875</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,10 +2339,10 @@
         <v>198</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>127.796</v>
+        <v>127.805</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>0.773</v>
+        <v>0.75215625</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,10 +2350,10 @@
         <v>199</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>127.801</v>
+        <v>127.799</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>0.77244792</v>
+        <v>0.73245833</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,10 +2361,10 @@
         <v>200</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>127.802</v>
+        <v>127.801</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>0.77671875</v>
+        <v>0.74564583</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,10 +2372,10 @@
         <v>201</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>127.805</v>
+        <v>127.796</v>
       </c>
       <c r="C201" s="3" t="n">
-        <v>0.75215625</v>
+        <v>0.76480208</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,10 +2383,10 @@
         <v>202</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>127.799</v>
+        <v>127.796</v>
       </c>
       <c r="C202" s="3" t="n">
-        <v>0.73245833</v>
+        <v>0.73096875</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,7 +2397,7 @@
         <v>127.801</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>0.74564583</v>
+        <v>0.70352083</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,10 +2405,10 @@
         <v>204</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>127.796</v>
+        <v>127.804</v>
       </c>
       <c r="C204" s="3" t="n">
-        <v>0.76480208</v>
+        <v>0.69967708</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,10 +2416,10 @@
         <v>205</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>127.796</v>
+        <v>127.794</v>
       </c>
       <c r="C205" s="3" t="n">
-        <v>0.73096875</v>
+        <v>0.7195</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,10 +2427,10 @@
         <v>206</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>127.801</v>
+        <v>127.804</v>
       </c>
       <c r="C206" s="3" t="n">
-        <v>0.70352083</v>
+        <v>0.72226042</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,10 +2438,10 @@
         <v>207</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>127.804</v>
+        <v>127.806</v>
       </c>
       <c r="C207" s="3" t="n">
-        <v>0.69967708</v>
+        <v>0.6995</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,10 +2449,10 @@
         <v>208</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>127.794</v>
+        <v>127.797</v>
       </c>
       <c r="C208" s="3" t="n">
-        <v>0.7195</v>
+        <v>0.71329167</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,10 +2460,10 @@
         <v>209</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>127.804</v>
+        <v>127.807</v>
       </c>
       <c r="C209" s="3" t="n">
-        <v>0.72226042</v>
+        <v>0.72467708</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,10 +2471,10 @@
         <v>210</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>127.806</v>
+        <v>127.802</v>
       </c>
       <c r="C210" s="3" t="n">
-        <v>0.6995</v>
+        <v>0.69351042</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,10 +2482,10 @@
         <v>211</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>127.797</v>
+        <v>127.796</v>
       </c>
       <c r="C211" s="3" t="n">
-        <v>0.71329167</v>
+        <v>0.67480208</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,10 +2493,10 @@
         <v>212</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>127.807</v>
+        <v>127.808</v>
       </c>
       <c r="C212" s="3" t="n">
-        <v>0.72467708</v>
+        <v>0.69161458</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,10 +2504,10 @@
         <v>213</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>127.802</v>
+        <v>127.806</v>
       </c>
       <c r="C213" s="3" t="n">
-        <v>0.69351042</v>
+        <v>0.72996875</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,10 +2515,10 @@
         <v>214</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>127.796</v>
+        <v>127.797</v>
       </c>
       <c r="C214" s="3" t="n">
-        <v>0.67480208</v>
+        <v>0.67704167</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,10 +2526,10 @@
         <v>215</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>127.808</v>
+        <v>127.803</v>
       </c>
       <c r="C215" s="3" t="n">
-        <v>0.69161458</v>
+        <v>0.67596875</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,10 +2537,10 @@
         <v>216</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>127.806</v>
+        <v>127.793</v>
       </c>
       <c r="C216" s="3" t="n">
-        <v>0.72996875</v>
+        <v>0.66358333</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,10 +2548,10 @@
         <v>217</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>127.797</v>
+        <v>127.798</v>
       </c>
       <c r="C217" s="3" t="n">
-        <v>0.67704167</v>
+        <v>0.63530208</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,28 +2559,32 @@
         <v>218</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>127.803</v>
+        <v>127.797</v>
       </c>
       <c r="C218" s="3" t="n">
-        <v>0.67596875</v>
+        <v>0.64492708</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B219" s="6"/>
+      <c r="B219" s="2" t="n">
+        <v>127.802</v>
+      </c>
       <c r="C219" s="3" t="n">
-        <v>0.74451042</v>
+        <v>0.65258333</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B220" s="6"/>
+      <c r="B220" s="2" t="n">
+        <v>127.801</v>
+      </c>
       <c r="C220" s="3" t="n">
-        <v>0.730875</v>
+        <v>0.64651579</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,10 +2592,10 @@
         <v>221</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>127.793</v>
+        <v>127.805</v>
       </c>
       <c r="C221" s="3" t="n">
-        <v>0.66358333</v>
+        <v>0.64651042</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,10 +2603,10 @@
         <v>222</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>127.798</v>
+        <v>127.807</v>
       </c>
       <c r="C222" s="3" t="n">
-        <v>0.63530208</v>
+        <v>0.66720833</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,10 +2614,10 @@
         <v>223</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>127.797</v>
+        <v>127.795</v>
       </c>
       <c r="C223" s="3" t="n">
-        <v>0.64492708</v>
+        <v>0.69080208</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,7 +2628,7 @@
         <v>127.802</v>
       </c>
       <c r="C224" s="3" t="n">
-        <v>0.65258333</v>
+        <v>0.67928125</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,10 +2636,10 @@
         <v>225</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>127.801</v>
+        <v>127.798</v>
       </c>
       <c r="C225" s="3" t="n">
-        <v>0.64651579</v>
+        <v>0.68001042</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,10 +2647,10 @@
         <v>226</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>127.805</v>
+        <v>127.811</v>
       </c>
       <c r="C226" s="3" t="n">
-        <v>0.64651042</v>
+        <v>0.7184</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,10 +2658,10 @@
         <v>227</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>127.807</v>
+        <v>127.802</v>
       </c>
       <c r="C227" s="3" t="n">
-        <v>0.66720833</v>
+        <v>0.72165625</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,10 +2669,10 @@
         <v>228</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>127.795</v>
+        <v>127.805</v>
       </c>
       <c r="C228" s="3" t="n">
-        <v>0.69080208</v>
+        <v>0.69241667</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,10 +2680,10 @@
         <v>229</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>127.802</v>
+        <v>127.81</v>
       </c>
       <c r="C229" s="3" t="n">
-        <v>0.67928125</v>
+        <v>0.68170833</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,10 +2691,10 @@
         <v>230</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>127.798</v>
+        <v>127.811</v>
       </c>
       <c r="C230" s="3" t="n">
-        <v>0.68001042</v>
+        <v>0.6749375</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,10 +2702,10 @@
         <v>231</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>127.811</v>
+        <v>127.804</v>
       </c>
       <c r="C231" s="3" t="n">
-        <v>0.7184</v>
+        <v>0.66959375</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,10 +2713,10 @@
         <v>232</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>127.802</v>
+        <v>127.808</v>
       </c>
       <c r="C232" s="3" t="n">
-        <v>0.72165625</v>
+        <v>0.66052083</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,10 +2724,10 @@
         <v>233</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>127.805</v>
+        <v>127.804</v>
       </c>
       <c r="C233" s="3" t="n">
-        <v>0.69241667</v>
+        <v>0.65535417</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,10 +2735,10 @@
         <v>234</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>127.81</v>
+        <v>127.794</v>
       </c>
       <c r="C234" s="3" t="n">
-        <v>0.68170833</v>
+        <v>0.66742708</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,10 +2746,10 @@
         <v>235</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>127.811</v>
+        <v>127.798</v>
       </c>
       <c r="C235" s="3" t="n">
-        <v>0.6749375</v>
+        <v>0.67322917</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,10 +2757,10 @@
         <v>236</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>127.804</v>
+        <v>127.796</v>
       </c>
       <c r="C236" s="3" t="n">
-        <v>0.66959375</v>
+        <v>0.67236458</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,10 +2768,10 @@
         <v>237</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>127.808</v>
+        <v>127.8</v>
       </c>
       <c r="C237" s="3" t="n">
-        <v>0.66052083</v>
+        <v>0.67071875</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +2782,7 @@
         <v>127.804</v>
       </c>
       <c r="C238" s="3" t="n">
-        <v>0.65535417</v>
+        <v>0.66051042</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,10 +2790,10 @@
         <v>239</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>127.794</v>
+        <v>127.806</v>
       </c>
       <c r="C239" s="3" t="n">
-        <v>0.66742708</v>
+        <v>0.63163542</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,10 +2801,10 @@
         <v>240</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>127.798</v>
+        <v>127.796</v>
       </c>
       <c r="C240" s="3" t="n">
-        <v>0.67322917</v>
+        <v>0.626375</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2812,10 @@
         <v>241</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>127.796</v>
+        <v>127.807</v>
       </c>
       <c r="C241" s="3" t="n">
-        <v>0.67236458</v>
+        <v>0.63902083</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,10 +2823,10 @@
         <v>242</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>127.8</v>
+        <v>127.807</v>
       </c>
       <c r="C242" s="3" t="n">
-        <v>0.67071875</v>
+        <v>0.59925</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,10 +2834,10 @@
         <v>243</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>127.804</v>
+        <v>127.808</v>
       </c>
       <c r="C243" s="3" t="n">
-        <v>0.66051042</v>
+        <v>0.57629167</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +2845,10 @@
         <v>244</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>127.806</v>
+        <v>127.832</v>
       </c>
       <c r="C244" s="3" t="n">
-        <v>0.63163542</v>
+        <v>0.60369792</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,10 +2856,10 @@
         <v>245</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>127.796</v>
+        <v>127.8</v>
       </c>
       <c r="C245" s="3" t="n">
-        <v>0.626375</v>
+        <v>0.57048958</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2861,10 +2867,10 @@
         <v>246</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>127.807</v>
+        <v>127.809</v>
       </c>
       <c r="C246" s="3" t="n">
-        <v>0.63902083</v>
+        <v>0.61564583</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2872,10 +2878,10 @@
         <v>247</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>127.807</v>
+        <v>127.805</v>
       </c>
       <c r="C247" s="3" t="n">
-        <v>0.59925</v>
+        <v>0.66340625</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,10 +2889,10 @@
         <v>248</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>127.808</v>
+        <v>127.799</v>
       </c>
       <c r="C248" s="3" t="n">
-        <v>0.57629167</v>
+        <v>0.69997917</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,10 +2900,10 @@
         <v>249</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>127.832</v>
+        <v>127.807</v>
       </c>
       <c r="C249" s="3" t="n">
-        <v>0.60369792</v>
+        <v>0.68627083</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,10 +2911,10 @@
         <v>250</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>127.8</v>
+        <v>127.806</v>
       </c>
       <c r="C250" s="3" t="n">
-        <v>0.57048958</v>
+        <v>0.664875</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,10 +2922,10 @@
         <v>251</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>127.809</v>
+        <v>127.804</v>
       </c>
       <c r="C251" s="3" t="n">
-        <v>0.61564583</v>
+        <v>0.63666667</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2927,10 +2933,10 @@
         <v>252</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>127.805</v>
+        <v>127.803</v>
       </c>
       <c r="C252" s="3" t="n">
-        <v>0.66340625</v>
+        <v>0.61459375</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,10 +2944,10 @@
         <v>253</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>127.799</v>
+        <v>127.812</v>
       </c>
       <c r="C253" s="3" t="n">
-        <v>0.69997917</v>
+        <v>0.57757292</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,10 +2955,10 @@
         <v>254</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>127.807</v>
+        <v>127.801</v>
       </c>
       <c r="C254" s="3" t="n">
-        <v>0.68627083</v>
+        <v>0.58069792</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,10 +2966,10 @@
         <v>255</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>127.806</v>
+        <v>127.805</v>
       </c>
       <c r="C255" s="3" t="n">
-        <v>0.664875</v>
+        <v>0.5383125</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,10 +2977,10 @@
         <v>256</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>127.804</v>
+        <v>127.806</v>
       </c>
       <c r="C256" s="3" t="n">
-        <v>0.63666667</v>
+        <v>0.509375</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,10 +2988,10 @@
         <v>257</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>127.803</v>
+        <v>127.804</v>
       </c>
       <c r="C257" s="3" t="n">
-        <v>0.61459375</v>
+        <v>0.51430208</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,10 +2999,10 @@
         <v>258</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>127.812</v>
+        <v>127.803</v>
       </c>
       <c r="C258" s="3" t="n">
-        <v>0.57757292</v>
+        <v>0.55266667</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3007,7 +3013,7 @@
         <v>127.801</v>
       </c>
       <c r="C259" s="3" t="n">
-        <v>0.58069792</v>
+        <v>0.60853125</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,10 +3021,10 @@
         <v>260</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>127.805</v>
+        <v>127.808</v>
       </c>
       <c r="C260" s="3" t="n">
-        <v>0.5383125</v>
+        <v>0.61634375</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,10 +3032,10 @@
         <v>261</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>127.806</v>
+        <v>127.804</v>
       </c>
       <c r="C261" s="3" t="n">
-        <v>0.509375</v>
+        <v>0.612885417</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,10 +3043,10 @@
         <v>262</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>127.804</v>
+        <v>127.807</v>
       </c>
       <c r="C262" s="3" t="n">
-        <v>0.51430208</v>
+        <v>0.59569792</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,10 +3054,10 @@
         <v>263</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>127.803</v>
+        <v>127.8</v>
       </c>
       <c r="C263" s="3" t="n">
-        <v>0.55266667</v>
+        <v>0.545125</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,10 +3065,10 @@
         <v>264</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>127.801</v>
+        <v>127.802</v>
       </c>
       <c r="C264" s="3" t="n">
-        <v>0.60853125</v>
+        <v>0.54298958</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,10 +3076,10 @@
         <v>265</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>127.808</v>
+        <v>127.81</v>
       </c>
       <c r="C265" s="3" t="n">
-        <v>0.61634375</v>
+        <v>0.51209375</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,10 +3087,10 @@
         <v>266</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>127.804</v>
+        <v>127.808</v>
       </c>
       <c r="C266" s="3" t="n">
-        <v>0.612885417</v>
+        <v>0.55822917</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3098,10 @@
         <v>267</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>127.807</v>
+        <v>127.813</v>
       </c>
       <c r="C267" s="3" t="n">
-        <v>0.59569792</v>
+        <v>0.56405208</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,10 +3109,10 @@
         <v>268</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>127.8</v>
+        <v>127.813</v>
       </c>
       <c r="C268" s="3" t="n">
-        <v>0.545125</v>
+        <v>0.56754167</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3114,10 +3120,10 @@
         <v>269</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>127.802</v>
+        <v>127.807</v>
       </c>
       <c r="C269" s="3" t="n">
-        <v>0.54298958</v>
+        <v>0.62942708</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,10 +3131,10 @@
         <v>270</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>127.81</v>
+        <v>127.804</v>
       </c>
       <c r="C270" s="3" t="n">
-        <v>0.51209375</v>
+        <v>0.68882292</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,10 +3142,10 @@
         <v>271</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>127.808</v>
+        <v>127.807</v>
       </c>
       <c r="C271" s="3" t="n">
-        <v>0.55822917</v>
+        <v>0.70039583</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,10 +3153,10 @@
         <v>272</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>127.813</v>
+        <v>127.804</v>
       </c>
       <c r="C272" s="3" t="n">
-        <v>0.56405208</v>
+        <v>0.64822917</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,10 +3164,10 @@
         <v>273</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>127.813</v>
+        <v>127.804</v>
       </c>
       <c r="C273" s="3" t="n">
-        <v>0.56754167</v>
+        <v>0.64540625</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,10 +3175,10 @@
         <v>274</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>127.807</v>
+        <v>127.816</v>
       </c>
       <c r="C274" s="3" t="n">
-        <v>0.62942708</v>
+        <v>0.67391667</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,10 +3186,10 @@
         <v>275</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>127.804</v>
+        <v>127.813</v>
       </c>
       <c r="C275" s="3" t="n">
-        <v>0.68882292</v>
+        <v>0.71207292</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,10 +3197,10 @@
         <v>276</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>127.807</v>
+        <v>127.815</v>
       </c>
       <c r="C276" s="3" t="n">
-        <v>0.70039583</v>
+        <v>0.72641667</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,10 +3208,10 @@
         <v>277</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>127.804</v>
+        <v>127.816</v>
       </c>
       <c r="C277" s="3" t="n">
-        <v>0.64822917</v>
+        <v>0.71082292</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3219,10 @@
         <v>278</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>127.804</v>
+        <v>127.813</v>
       </c>
       <c r="C278" s="3" t="n">
-        <v>0.64540625</v>
+        <v>0.66579167</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,10 +3230,10 @@
         <v>279</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>127.816</v>
+        <v>127.805</v>
       </c>
       <c r="C279" s="3" t="n">
-        <v>0.67391667</v>
+        <v>0.60509375</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,10 +3241,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>127.813</v>
+        <v>127.815</v>
       </c>
       <c r="C280" s="3" t="n">
-        <v>0.71207292</v>
+        <v>0.59409375</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,10 +3252,10 @@
         <v>281</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>127.815</v>
+        <v>127.807</v>
       </c>
       <c r="C281" s="3" t="n">
-        <v>0.72641667</v>
+        <v>0.609125</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,10 +3263,10 @@
         <v>282</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>127.816</v>
+        <v>127.806</v>
       </c>
       <c r="C282" s="3" t="n">
-        <v>0.71082292</v>
+        <v>0.62397917</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,10 +3274,10 @@
         <v>283</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>127.813</v>
+        <v>127.803</v>
       </c>
       <c r="C283" s="3" t="n">
-        <v>0.66579167</v>
+        <v>0.58570833</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,10 +3285,10 @@
         <v>284</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>127.805</v>
+        <v>127.814</v>
       </c>
       <c r="C284" s="3" t="n">
-        <v>0.60509375</v>
+        <v>0.59829167</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,10 +3296,10 @@
         <v>285</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>127.815</v>
+        <v>127.798</v>
       </c>
       <c r="C285" s="3" t="n">
-        <v>0.59409375</v>
+        <v>0.61559375</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,10 +3307,10 @@
         <v>286</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>127.807</v>
+        <v>127.804</v>
       </c>
       <c r="C286" s="3" t="n">
-        <v>0.609125</v>
+        <v>0.56663542</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,10 +3318,10 @@
         <v>287</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>127.806</v>
+        <v>127.807</v>
       </c>
       <c r="C287" s="3" t="n">
-        <v>0.62397917</v>
+        <v>0.529083333</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,10 +3329,10 @@
         <v>288</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>127.803</v>
+        <v>127.805</v>
       </c>
       <c r="C288" s="3" t="n">
-        <v>0.58570833</v>
+        <v>0.52597917</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,10 +3340,10 @@
         <v>289</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>127.814</v>
+        <v>127.805</v>
       </c>
       <c r="C289" s="3" t="n">
-        <v>0.59829167</v>
+        <v>0.4909375</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,10 +3351,10 @@
         <v>290</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>127.798</v>
+        <v>127.803</v>
       </c>
       <c r="C290" s="3" t="n">
-        <v>0.61559375</v>
+        <v>0.46019792</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,10 +3362,10 @@
         <v>291</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>127.804</v>
+        <v>127.811</v>
       </c>
       <c r="C291" s="3" t="n">
-        <v>0.56663542</v>
+        <v>0.52516667</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,10 +3373,10 @@
         <v>292</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>127.807</v>
+        <v>127.814</v>
       </c>
       <c r="C292" s="3" t="n">
-        <v>0.529083333</v>
+        <v>0.54027083</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3378,10 +3384,10 @@
         <v>293</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>127.805</v>
+        <v>127.804</v>
       </c>
       <c r="C293" s="3" t="n">
-        <v>0.52597917</v>
+        <v>0.53373958</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3389,10 +3395,10 @@
         <v>294</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>127.805</v>
+        <v>127.814</v>
       </c>
       <c r="C294" s="3" t="n">
-        <v>0.4909375</v>
+        <v>0.522125</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,19 +3406,21 @@
         <v>295</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>127.803</v>
+        <v>127.816</v>
       </c>
       <c r="C295" s="3" t="n">
-        <v>0.46019792</v>
+        <v>0.5089375</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B296" s="6"/>
+      <c r="B296" s="2" t="n">
+        <v>127.809</v>
+      </c>
       <c r="C296" s="3" t="n">
-        <v>0.51266667</v>
+        <v>0.49372917</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,10 +3428,10 @@
         <v>297</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>127.811</v>
+        <v>127.809</v>
       </c>
       <c r="C297" s="3" t="n">
-        <v>0.52516667</v>
+        <v>0.489697917</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,10 +3439,10 @@
         <v>298</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>127.814</v>
+        <v>127.812</v>
       </c>
       <c r="C298" s="3" t="n">
-        <v>0.54027083</v>
+        <v>0.493020833</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,10 +3450,10 @@
         <v>299</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>127.804</v>
+        <v>127.805</v>
       </c>
       <c r="C299" s="3" t="n">
-        <v>0.53373958</v>
+        <v>0.496958333</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,10 +3461,10 @@
         <v>300</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>127.814</v>
+        <v>127.809</v>
       </c>
       <c r="C300" s="3" t="n">
-        <v>0.522125</v>
+        <v>0.490395833</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,10 +3472,10 @@
         <v>301</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>127.816</v>
+        <v>127.811</v>
       </c>
       <c r="C301" s="3" t="n">
-        <v>0.5089375</v>
+        <v>0.471683673</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,10 +3483,10 @@
         <v>302</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>127.809</v>
+        <v>127.806</v>
       </c>
       <c r="C302" s="3" t="n">
-        <v>0.49372917</v>
+        <v>0.4555</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,10 +3494,10 @@
         <v>303</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>127.809</v>
+        <v>127.803</v>
       </c>
       <c r="C303" s="3" t="n">
-        <v>0.489697917</v>
+        <v>0.453614583</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,10 +3505,10 @@
         <v>304</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>127.812</v>
+        <v>127.808</v>
       </c>
       <c r="C304" s="3" t="n">
-        <v>0.493020833</v>
+        <v>0.47696875</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,10 +3516,10 @@
         <v>305</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>127.805</v>
+        <v>127.808</v>
       </c>
       <c r="C305" s="3" t="n">
-        <v>0.496958333</v>
+        <v>0.5250625</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,10 +3527,10 @@
         <v>306</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>127.809</v>
+        <v>127.811</v>
       </c>
       <c r="C306" s="3" t="n">
-        <v>0.490395833</v>
+        <v>0.46453125</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,10 +3538,10 @@
         <v>307</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>127.811</v>
+        <v>127.804</v>
       </c>
       <c r="C307" s="3" t="n">
-        <v>0.471683673</v>
+        <v>0.470875</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,10 +3549,10 @@
         <v>308</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>127.806</v>
+        <v>127.81</v>
       </c>
       <c r="C308" s="3" t="n">
-        <v>0.4555</v>
+        <v>0.537572917</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,10 +3560,10 @@
         <v>309</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>127.803</v>
+        <v>127.81</v>
       </c>
       <c r="C309" s="3" t="n">
-        <v>0.453614583</v>
+        <v>0.474385417</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,10 +3571,10 @@
         <v>310</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>127.808</v>
+        <v>127.811</v>
       </c>
       <c r="C310" s="3" t="n">
-        <v>0.47696875</v>
+        <v>0.471458333</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,10 +3582,10 @@
         <v>311</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>127.808</v>
+        <v>127.812</v>
       </c>
       <c r="C311" s="3" t="n">
-        <v>0.5250625</v>
+        <v>0.474770833</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,10 +3593,10 @@
         <v>312</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>127.811</v>
+        <v>127.813</v>
       </c>
       <c r="C312" s="3" t="n">
-        <v>0.46453125</v>
+        <v>0.471010417</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,10 +3604,10 @@
         <v>313</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>127.804</v>
+        <v>127.811</v>
       </c>
       <c r="C313" s="3" t="n">
-        <v>0.470875</v>
+        <v>0.49134375</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,7 +3618,7 @@
         <v>127.81</v>
       </c>
       <c r="C314" s="3" t="n">
-        <v>0.537572917</v>
+        <v>0.538916667</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,7 +3629,7 @@
         <v>127.81</v>
       </c>
       <c r="C315" s="3" t="n">
-        <v>0.474385417</v>
+        <v>0.522885417</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,10 +3637,10 @@
         <v>316</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>127.811</v>
+        <v>127.809</v>
       </c>
       <c r="C316" s="3" t="n">
-        <v>0.471458333</v>
+        <v>0.53321875</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,10 +3648,10 @@
         <v>317</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>127.812</v>
+        <v>127.802</v>
       </c>
       <c r="C317" s="3" t="n">
-        <v>0.474770833</v>
+        <v>0.49821875</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3651,10 +3659,10 @@
         <v>318</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>127.813</v>
+        <v>127.809</v>
       </c>
       <c r="C318" s="3" t="n">
-        <v>0.471010417</v>
+        <v>0.438020833</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,7 +3673,7 @@
         <v>127.811</v>
       </c>
       <c r="C319" s="3" t="n">
-        <v>0.49134375</v>
+        <v>0.413552083</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,10 +3681,10 @@
         <v>320</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>127.81</v>
+        <v>127.813</v>
       </c>
       <c r="C320" s="3" t="n">
-        <v>0.538916667</v>
+        <v>0.370270833</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,10 +3692,10 @@
         <v>321</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>127.81</v>
+        <v>127.811</v>
       </c>
       <c r="C321" s="3" t="n">
-        <v>0.522885417</v>
+        <v>0.391802083</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,10 +3703,10 @@
         <v>322</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>127.809</v>
+        <v>127.813</v>
       </c>
       <c r="C322" s="3" t="n">
-        <v>0.53321875</v>
+        <v>0.478666667</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,10 +3714,10 @@
         <v>323</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>127.802</v>
+        <v>127.813</v>
       </c>
       <c r="C323" s="3" t="n">
-        <v>0.49821875</v>
+        <v>0.45859375</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,10 +3725,10 @@
         <v>324</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>127.809</v>
+        <v>127.807</v>
       </c>
       <c r="C324" s="3" t="n">
-        <v>0.438020833</v>
+        <v>0.45190625</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,10 +3736,10 @@
         <v>325</v>
       </c>
       <c r="B325" s="2" t="n">
-        <v>127.811</v>
+        <v>127.801</v>
       </c>
       <c r="C325" s="3" t="n">
-        <v>0.413552083</v>
+        <v>0.392739583</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,10 +3747,10 @@
         <v>326</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>127.813</v>
+        <v>127.809</v>
       </c>
       <c r="C326" s="3" t="n">
-        <v>0.370270833</v>
+        <v>0.450416667</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,10 +3758,10 @@
         <v>327</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>127.811</v>
+        <v>127.808</v>
       </c>
       <c r="C327" s="3" t="n">
-        <v>0.391802083</v>
+        <v>0.43546875</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,10 +3769,10 @@
         <v>328</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>127.813</v>
+        <v>127.808</v>
       </c>
       <c r="C328" s="3" t="n">
-        <v>0.478666667</v>
+        <v>0.48640625</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,10 +3780,10 @@
         <v>329</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>127.813</v>
+        <v>127.808</v>
       </c>
       <c r="C329" s="3" t="n">
-        <v>0.45859375</v>
+        <v>0.524375</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,10 +3791,10 @@
         <v>330</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>127.807</v>
+        <v>127.805</v>
       </c>
       <c r="C330" s="3" t="n">
-        <v>0.45190625</v>
+        <v>0.3986875</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,7 +3805,7 @@
         <v>127.801</v>
       </c>
       <c r="C331" s="3" t="n">
-        <v>0.392739583</v>
+        <v>0.377833333</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,10 +3813,10 @@
         <v>332</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>127.809</v>
+        <v>127.805</v>
       </c>
       <c r="C332" s="3" t="n">
-        <v>0.450416667</v>
+        <v>0.428791667</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,10 +3824,10 @@
         <v>333</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>127.808</v>
+        <v>127.807</v>
       </c>
       <c r="C333" s="3" t="n">
-        <v>0.43546875</v>
+        <v>0.512166667</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,10 +3835,10 @@
         <v>334</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>127.808</v>
+        <v>127.797</v>
       </c>
       <c r="C334" s="3" t="n">
-        <v>0.48640625</v>
+        <v>0.433916667</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,10 +3846,10 @@
         <v>335</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>127.808</v>
+        <v>127.807</v>
       </c>
       <c r="C335" s="3" t="n">
-        <v>0.524375</v>
+        <v>0.479114583</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,10 +3857,10 @@
         <v>336</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>127.805</v>
+        <v>127.801</v>
       </c>
       <c r="C336" s="3" t="n">
-        <v>0.3986875</v>
+        <v>0.529145833</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,10 +3868,10 @@
         <v>337</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>127.801</v>
+        <v>127.807</v>
       </c>
       <c r="C337" s="3" t="n">
-        <v>0.377833333</v>
+        <v>0.5145</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,7 +3882,7 @@
         <v>127.805</v>
       </c>
       <c r="C338" s="3" t="n">
-        <v>0.428791667</v>
+        <v>0.479604167</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,10 +3890,10 @@
         <v>339</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>127.807</v>
+        <v>127.815</v>
       </c>
       <c r="C339" s="3" t="n">
-        <v>0.512166667</v>
+        <v>0.506572917</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,10 +3901,10 @@
         <v>340</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>127.797</v>
+        <v>127.807</v>
       </c>
       <c r="C340" s="3" t="n">
-        <v>0.433916667</v>
+        <v>0.565625</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,7 +3915,7 @@
         <v>127.807</v>
       </c>
       <c r="C341" s="3" t="n">
-        <v>0.479114583</v>
+        <v>0.6210625</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,10 +3923,10 @@
         <v>342</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>127.801</v>
+        <v>127.797</v>
       </c>
       <c r="C342" s="3" t="n">
-        <v>0.529145833</v>
+        <v>0.666447917</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,10 +3934,10 @@
         <v>343</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>127.807</v>
+        <v>127.794</v>
       </c>
       <c r="C343" s="3" t="n">
-        <v>0.5145</v>
+        <v>0.7123125</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,10 +3945,10 @@
         <v>344</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>127.805</v>
+        <v>127.802</v>
       </c>
       <c r="C344" s="3" t="n">
-        <v>0.479604167</v>
+        <v>0.704333333</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,10 +3956,10 @@
         <v>345</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>127.815</v>
+        <v>127.805</v>
       </c>
       <c r="C345" s="3" t="n">
-        <v>0.506572917</v>
+        <v>0.698635417</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,10 +3967,10 @@
         <v>346</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>127.807</v>
+        <v>127.805</v>
       </c>
       <c r="C346" s="3" t="n">
-        <v>0.565625</v>
+        <v>0.668125</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,10 +3978,10 @@
         <v>347</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>127.807</v>
+        <v>127.809</v>
       </c>
       <c r="C347" s="3" t="n">
-        <v>0.6210625</v>
+        <v>0.626135417</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,10 +3989,10 @@
         <v>348</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>127.797</v>
+        <v>127.804</v>
       </c>
       <c r="C348" s="3" t="n">
-        <v>0.666447917</v>
+        <v>0.475072917</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,10 +4000,10 @@
         <v>349</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>127.794</v>
+        <v>127.801</v>
       </c>
       <c r="C349" s="3" t="n">
-        <v>0.7123125</v>
+        <v>0.52090625</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,10 +4011,10 @@
         <v>350</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>127.802</v>
+        <v>127.816</v>
       </c>
       <c r="C350" s="3" t="n">
-        <v>0.704333333</v>
+        <v>0.500552083</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,10 +4022,10 @@
         <v>351</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>127.805</v>
+        <v>127.802</v>
       </c>
       <c r="C351" s="3" t="n">
-        <v>0.698635417</v>
+        <v>0.476489583</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,10 +4033,10 @@
         <v>352</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>127.805</v>
+        <v>127.815</v>
       </c>
       <c r="C352" s="3" t="n">
-        <v>0.668125</v>
+        <v>0.47153125</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,7 +4047,7 @@
         <v>127.809</v>
       </c>
       <c r="C353" s="3" t="n">
-        <v>0.626135417</v>
+        <v>0.38096875</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,10 +4055,10 @@
         <v>354</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>127.804</v>
+        <v>127.809</v>
       </c>
       <c r="C354" s="3" t="n">
-        <v>0.475072917</v>
+        <v>0.452760417</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4058,10 +4066,10 @@
         <v>355</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>127.801</v>
+        <v>127.804</v>
       </c>
       <c r="C355" s="3" t="n">
-        <v>0.52090625</v>
+        <v>0.544094737</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,10 +4077,10 @@
         <v>356</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>127.816</v>
+        <v>127.808</v>
       </c>
       <c r="C356" s="3" t="n">
-        <v>0.500552083</v>
+        <v>0.608333333</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,10 +4088,10 @@
         <v>357</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>127.802</v>
+        <v>127.81</v>
       </c>
       <c r="C357" s="3" t="n">
-        <v>0.476489583</v>
+        <v>0.6718125</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,10 +4099,10 @@
         <v>358</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>127.815</v>
+        <v>127.802</v>
       </c>
       <c r="C358" s="3" t="n">
-        <v>0.47153125</v>
+        <v>0.682052083</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,75 +4110,9 @@
         <v>359</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>127.809</v>
+        <v>127.814</v>
       </c>
       <c r="C359" s="3" t="n">
-        <v>0.38096875</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B360" s="2" t="n">
-        <v>127.809</v>
-      </c>
-      <c r="C360" s="3" t="n">
-        <v>0.452760417</v>
-      </c>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B361" s="2" t="n">
-        <v>127.804</v>
-      </c>
-      <c r="C361" s="3" t="n">
-        <v>0.544094737</v>
-      </c>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B362" s="2" t="n">
-        <v>127.808</v>
-      </c>
-      <c r="C362" s="3" t="n">
-        <v>0.608333333</v>
-      </c>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B363" s="2" t="n">
-        <v>127.81</v>
-      </c>
-      <c r="C363" s="3" t="n">
-        <v>0.6718125</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B364" s="2" t="n">
-        <v>127.802</v>
-      </c>
-      <c r="C364" s="3" t="n">
-        <v>0.682052083</v>
-      </c>
-    </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B365" s="2" t="n">
-        <v>127.814</v>
-      </c>
-      <c r="C365" s="3" t="n">
         <v>0.656979167</v>
       </c>
     </row>
